--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>mese</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>giorni settembre</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -114,6 +117,9 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -432,12 +438,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -547,7 +553,9 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>mese</t>
   </si>
@@ -36,9 +36,6 @@
   <si>
     <t>giorni settembre</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
@@ -47,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +56,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -109,20 +112,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -438,12 +438,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -553,9 +553,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>mese</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>giorni settembre</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>km fatti</t>
+  </si>
+  <si>
+    <t>alexboy15</t>
+  </si>
+  <si>
+    <t>xmoro</t>
+  </si>
+  <si>
+    <t>freshcanta</t>
   </si>
 </sst>
 </file>
@@ -60,7 +75,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -92,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -121,11 +136,14 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -438,12 +456,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -528,8 +546,12 @@
         <v>75.2</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -552,8 +574,12 @@
         <v>74.85</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>8</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -564,8 +590,12 @@
         <v>74.35</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -576,8 +606,12 @@
         <v>74.35</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>mese</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>km fatti</t>
+  </si>
+  <si>
+    <t>record precedenti</t>
   </si>
   <si>
     <t>alexboy15</t>
@@ -59,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -107,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -118,6 +127,9 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -136,7 +148,10 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -146,6 +161,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -456,12 +474,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -473,41 +491,41 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>75.2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -517,229 +535,237 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>6692201</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>75.6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6692202</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>75.2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>6692203</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>75.2</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>6692204</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>74.85</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11">
         <v>8</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>6692205</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>74.35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11">
         <v>9</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6692206</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>74.35</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11">
         <v>4</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="12">
+        <v>4.7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>6692207</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>75.2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>6692208</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>74.35</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>6692209</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>74</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>6692210</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>74.3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>6692211</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>74</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>6692212</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>74.3</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>6692213</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>74.31</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>6692214</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>73.9</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>6692215</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>74.35</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>6692216</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>6692217</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
     </row>
   </sheetData>

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -78,13 +78,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -127,43 +127,52 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -474,12 +483,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -492,31 +501,31 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>75.2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -526,7 +535,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
@@ -535,69 +544,69 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>6692201</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>75.6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6692202</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>75.2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>6692203</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>75.2</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>6692204</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>74.85</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>8</v>
       </c>
       <c r="F9" s="4">
@@ -605,17 +614,17 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>6692205</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>74.35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>9</v>
       </c>
       <c r="F10" s="4">
@@ -623,150 +632,122 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>6692206</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>74.35</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <v>4.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>6692207</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>75.2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>6692208</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>74.35</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>6692209</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>74</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="10">
-        <v>6692210</v>
-      </c>
-      <c r="B15" s="6">
-        <v>74.3</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="10">
-        <v>6692211</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="10">
-        <v>6692212</v>
-      </c>
-      <c r="B17" s="6">
-        <v>74.3</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="10">
-        <v>6692213</v>
-      </c>
-      <c r="B18" s="6">
-        <v>74.31</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="10">
-        <v>6692214</v>
-      </c>
-      <c r="B19" s="6">
-        <v>73.9</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="10">
-        <v>6692215</v>
-      </c>
-      <c r="B20" s="6">
-        <v>74.35</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="10">
-        <v>6692216</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="10">
-        <v>6692217</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="9"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -78,13 +78,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,12 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -130,8 +130,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -139,37 +139,34 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -487,8 +484,8 @@
     <col min="2" max="2" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="17" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -525,13 +522,13 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
@@ -544,18 +541,18 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="11">
-        <v>6692201</v>
+      <c r="A6" s="12">
+        <v>44788</v>
       </c>
       <c r="B6" s="7">
         <v>75.6</v>
@@ -566,8 +563,8 @@
       <c r="F6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11">
-        <v>6692202</v>
+      <c r="A7" s="12">
+        <v>44789</v>
       </c>
       <c r="B7" s="7">
         <v>75.2</v>
@@ -576,16 +573,16 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11">
-        <v>6692203</v>
+      <c r="A8" s="12">
+        <v>44790</v>
       </c>
       <c r="B8" s="7">
         <v>75.2</v>
@@ -596,8 +593,8 @@
       <c r="F8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="11">
-        <v>6692204</v>
+      <c r="A9" s="12">
+        <v>44791</v>
       </c>
       <c r="B9" s="7">
         <v>74.85</v>
@@ -606,7 +603,7 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
       <c r="F9" s="4">
@@ -614,8 +611,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="11">
-        <v>6692205</v>
+      <c r="A10" s="12">
+        <v>44792</v>
       </c>
       <c r="B10" s="7">
         <v>74.35</v>
@@ -624,7 +621,7 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="4">
         <v>9</v>
       </c>
       <c r="F10" s="4">
@@ -632,8 +629,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="11">
-        <v>6692206</v>
+      <c r="A11" s="12">
+        <v>44793</v>
       </c>
       <c r="B11" s="7">
         <v>74.35</v>
@@ -642,16 +639,16 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>4.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="11">
-        <v>6692207</v>
+      <c r="A12" s="12">
+        <v>44794</v>
       </c>
       <c r="B12" s="7">
         <v>75.2</v>
@@ -662,8 +659,8 @@
       <c r="F12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="11">
-        <v>6692208</v>
+      <c r="A13" s="12">
+        <v>44795</v>
       </c>
       <c r="B13" s="7">
         <v>74.35</v>
@@ -674,8 +671,8 @@
       <c r="F13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="11">
-        <v>6692209</v>
+      <c r="A14" s="12">
+        <v>44796</v>
       </c>
       <c r="B14" s="6">
         <v>74</v>
@@ -686,7 +683,7 @@
       <c r="F14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -694,7 +691,7 @@
       <c r="F15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -702,7 +699,7 @@
       <c r="F16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -710,7 +707,7 @@
       <c r="F17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -718,7 +715,7 @@
       <c r="F18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -726,7 +723,7 @@
       <c r="F19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -734,16 +731,16 @@
       <c r="F20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,12 +79,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -130,7 +124,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -145,19 +139,16 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -170,7 +161,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,18 +465,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -497,8 +489,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -509,8 +502,9 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -521,18 +515,20 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
@@ -541,17 +537,18 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>44788</v>
       </c>
       <c r="B6" s="7">
@@ -559,11 +556,12 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>44789</v>
       </c>
       <c r="B7" s="7">
@@ -573,15 +571,16 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>44790</v>
       </c>
       <c r="B8" s="7">
@@ -589,11 +588,12 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>44791</v>
       </c>
       <c r="B9" s="7">
@@ -603,15 +603,16 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>44792</v>
       </c>
       <c r="B10" s="7">
@@ -621,15 +622,16 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>44793</v>
       </c>
       <c r="B11" s="7">
@@ -639,15 +641,16 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="5">
         <v>4.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>44794</v>
       </c>
       <c r="B12" s="7">
@@ -655,11 +658,12 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>44795</v>
       </c>
       <c r="B13" s="7">
@@ -667,11 +671,12 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>44796</v>
       </c>
       <c r="B14" s="6">
@@ -679,72 +684,81 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -465,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -477,7 +477,8 @@
     <col min="4" max="4" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -491,7 +492,8 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -504,7 +506,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -517,7 +520,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -528,7 +532,8 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
@@ -545,7 +550,8 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="11">
@@ -558,7 +564,8 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="11">
@@ -575,7 +582,8 @@
       <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -590,7 +598,8 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="11">
@@ -607,7 +616,8 @@
       <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -626,7 +636,8 @@
       <c r="F10" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
     </row>
@@ -645,7 +656,8 @@
       <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3"/>
+      <c r="H11" s="5">
         <v>4.7</v>
       </c>
     </row>
@@ -660,7 +672,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="11">
@@ -673,7 +686,8 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="11">
@@ -686,7 +700,8 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="11"/>
@@ -695,7 +710,8 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="11"/>
@@ -704,7 +720,8 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="11"/>
@@ -713,7 +730,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="11"/>
@@ -722,7 +740,8 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="11"/>
@@ -731,7 +750,8 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="11"/>
@@ -740,7 +760,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="11"/>
@@ -749,7 +770,8 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="11"/>
@@ -758,7 +780,8 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,6 +150,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -471,14 +474,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -717,7 +720,9 @@
       <c r="A16" s="11"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="14">
+        <f>8+9</f>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>

--- a/progressi_palestra.xlsx
+++ b/progressi_palestra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>mese</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>freshcanta</t>
+  </si>
+  <si>
+    <t>somatotipo</t>
+  </si>
+  <si>
+    <t>dieta</t>
+  </si>
+  <si>
+    <t>endomorfo</t>
+  </si>
+  <si>
+    <t>carboidrati</t>
+  </si>
+  <si>
+    <t>mesomorfo</t>
+  </si>
+  <si>
+    <t>proteine</t>
+  </si>
+  <si>
+    <t>ectomorfo</t>
+  </si>
+  <si>
+    <t>zuccheri</t>
   </si>
 </sst>
 </file>
@@ -711,8 +735,12 @@
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="5"/>
     </row>
@@ -723,8 +751,12 @@
       <c r="D16" s="14">
         <f>8+9</f>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
@@ -733,8 +765,12 @@
       <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="5"/>
     </row>
@@ -743,8 +779,12 @@
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
     </row>
